--- a/APM files/128022694/MinGoLiveFinal.xlsx
+++ b/APM files/128022694/MinGoLiveFinal.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128022694\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F01AAC63-DD88-4F34-8F2F-945589E47E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D42411FB-BEE7-4514-948E-9FB58C6B17F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13845" yWindow="4905" windowWidth="23100" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13425" yWindow="5115" windowWidth="23100" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$L$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>N/A</t>
   </si>
@@ -53,51 +53,27 @@
     <t>InvalidProperty</t>
   </si>
   <si>
-    <t>Casa Los Mares Ocean Front Penthouse 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 466966, Expedia Property Id: 70394504, Correlation Id: 1f50ad06-a954-4d0b-8a3f-9d1e27641e00 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18012851 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa SueÃ±o 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 467792, Expedia Property Id: 71552797, Correlation Id: dd286afe-eab9-46b7-8ca0-5f18dba89999 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18012865 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Gorgeous Ocean Front Apartment Casa Shell 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 488693, Expedia Property Id: 92975415, Correlation Id: d1015501-86f5-4a64-9c82-dc3f099a26f3 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18012853 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>402n Casa Lucerna 2 Bedroom Apts by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 471836, Expedia Property Id: 78601251, Correlation Id: a573c426-1168-4505-8dc0-933f4c74a75b because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18012856 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa Alma 2 Bedroom Apts by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 488695, Expedia Property Id: 92975420, Correlation Id: 729cf189-64fd-459f-b12e-54ad44f8fe2b because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18024955 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa El Encanto Penthouse 532 Sur 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 488821, Expedia Property Id: 93121517, Correlation Id: f6e31182-516a-4b47-99b4-55aa7dd68602 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18012878 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa Pescadores 102 Norte 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 488694, Expedia Property Id: 92975416, Correlation Id: 1fec91ae-c2c5-49d4-af1c-6bf39e49b678 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18024956 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa Aruba 403n 2 Bedroom Apts by RedAwning</t>
-  </si>
-  <si>
     <t>Sufficient Inventory</t>
   </si>
   <si>
@@ -128,34 +104,25 @@
     <t>Public Code</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>Expedia ID</t>
   </si>
   <si>
-    <t>Casa El Secreto 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 461783, Expedia Property Id: 62556134, Correlation Id: efdb6b1f-7689-47c3-8b7c-5d0ddb8b83a4 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18024949 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa Almajuma 415 S 2 Bedroom Condo by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 465978, Expedia Property Id: 69678893, Correlation Id: cb06df09-494d-4a51-aa1c-cb16b607e200 because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18219223 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 491878, Expedia Property Id: 96008061, Correlation Id: 57f3ef32-042b-40cd-8dda-751553ae6f0a because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18024953 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>405 north Swim up 2 bedroom sleeps 6 2 Apts by RedAwning</t>
-  </si>
-  <si>
     <t>Step FinanceSetup failed for RedAwning Property Id: 488691, Expedia Property Id: 96268206, Correlation Id: c3c88c04-fd78-495b-ae22-67476f407dbb because of property missing Supplier Finance contract details. ErrorCode: POA-WS-272, Message 18024959 - Country code MX and Currency USD are not supported for supplier and has propertyEventReasonCode InvalidProperty, Finance profile with the appropriate country and currency cannot be found, please confirm this is set up properly.</t>
   </si>
   <si>
-    <t>Casa Amanecer 534n Ocean View Penthouse New !! 1 Bedroom Apts by RedAwning</t>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>RedAwning</t>
   </si>
 </sst>
 </file>
@@ -476,13 +443,13 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E8:E9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
@@ -497,49 +464,49 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
         <v>92975416</v>
       </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
@@ -547,7 +514,7 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -572,12 +539,12 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
         <v>93121517</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -585,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -610,12 +577,12 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
         <v>92975420</v>
       </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
@@ -623,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -648,12 +615,12 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>78601251</v>
       </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
       <c r="C5" t="s">
         <v>1</v>
       </c>
@@ -661,7 +628,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -686,12 +653,12 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6">
         <v>92975415</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -699,7 +666,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -724,12 +691,12 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
         <v>71552797</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
       <c r="C7" t="s">
         <v>1</v>
       </c>
@@ -737,7 +704,7 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -762,12 +729,12 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
         <v>70394504</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
       <c r="C8" t="s">
         <v>1</v>
       </c>
@@ -775,7 +742,7 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -800,11 +767,11 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
         <v>78461740</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -838,12 +805,12 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
         <v>71552797</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
@@ -851,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -876,11 +843,11 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
         <v>78461740</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -914,12 +881,12 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
         <v>62556134</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
       <c r="C12" t="s">
         <v>1</v>
       </c>
@@ -927,7 +894,7 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -952,12 +919,12 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
         <v>70394504</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
       <c r="C13" t="s">
         <v>1</v>
       </c>
@@ -965,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -990,12 +957,12 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
         <v>78601251</v>
       </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +970,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -1028,12 +995,12 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15">
         <v>69678893</v>
       </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
@@ -1041,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -1066,12 +1033,12 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
         <v>96008061</v>
       </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
       <c r="C16" t="s">
         <v>1</v>
       </c>
@@ -1079,7 +1046,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -1104,12 +1071,12 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17">
         <v>96268206</v>
       </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
       <c r="C17" t="s">
         <v>1</v>
       </c>
@@ -1117,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -1142,7 +1109,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="B1:L17" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>